--- a/Codes/front/Resources/Adatbázisterv.xlsx
+++ b/Codes/front/Resources/Adatbázisterv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\Szakdolgozat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ds216j\NasFater\Biztonsági mentés\2021.02.16\Fájlok\School stuff\14.sz\Szakdolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0936A-98D8-4B0D-91A0-BCD161D51D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F3C53-8D08-49DB-81C7-6E55A50CF0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14610" yWindow="2640" windowWidth="28800" windowHeight="11385" xr2:uid="{DE6D664E-A605-452B-8452-197259DFBC04}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11385" xr2:uid="{DE6D664E-A605-452B-8452-197259DFBC04}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>Menu</t>
   </si>
@@ -73,18 +73,12 @@
     <t>Videos</t>
   </si>
   <si>
-    <t>varchar(2)</t>
-  </si>
-  <si>
     <t>varchar(255)</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>integer auto_increment not null</t>
   </si>
   <si>
-    <t xml:space="preserve">Content </t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -118,15 +109,6 @@
     <t>hobbies</t>
   </si>
   <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>hu</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>Rólam</t>
   </si>
   <si>
@@ -215,6 +197,21 @@
   </si>
   <si>
     <t>Segédlet</t>
+  </si>
+  <si>
+    <t>Text_HU</t>
+  </si>
+  <si>
+    <t>Text_EN</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Text_Key</t>
+  </si>
+  <si>
+    <t>menu.hobby</t>
   </si>
 </sst>
 </file>
@@ -279,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -462,96 +459,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FFA654-AAF1-4D6E-84E2-E0894408DC86}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,283 +912,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="6" t="s">
+      <c r="A1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="31"/>
+      <c r="J1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="N1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="9"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="13"/>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="G3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="15"/>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="15"/>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="E6" s="15"/>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="19"/>
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3">
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="24"/>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="B9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="24"/>
-      <c r="J5" s="3">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="J6" s="3">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="28"/>
-      <c r="G8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>27</v>
+      <c r="K9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>2</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>19</v>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="J12" s="3">
+      <c r="H12" s="23"/>
+      <c r="J12" s="2">
         <v>3</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>25</v>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="3">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2">
         <v>4</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>26</v>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
@@ -1173,301 +1196,175 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="10">
+        <v>2</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="10">
+        <v>3</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="10">
+        <v>4</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="7">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="7">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="7">
         <v>7</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J17" s="14">
-        <v>1</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="15" t="s">
+      <c r="K23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="7">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="L24" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="16">
-        <v>2</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="16">
-        <v>3</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="15" t="s">
+      <c r="M24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="7">
+        <v>9</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="L25" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="16">
-        <v>4</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="13">
-        <v>5</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="13">
-        <v>6</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="13">
-        <v>7</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="13">
-        <v>8</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="13">
-        <v>9</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="16">
-        <v>10</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="16">
-        <v>11</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J28" s="16">
-        <v>12</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J29" s="16">
-        <v>13</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="13">
-        <v>14</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="13">
-        <v>15</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="13">
-        <v>16</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J33" s="13">
-        <v>17</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J34" s="13">
-        <v>18</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Codes/front/Resources/Adatbázisterv.xlsx
+++ b/Codes/front/Resources/Adatbázisterv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ds216j\NasFater\Biztonsági mentés\2021.02.16\Fájlok\School stuff\14.sz\Szakdolgozat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\xampp\htdocs\projects\Szakdolgozat\Codes\front\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F3C53-8D08-49DB-81C7-6E55A50CF0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECF382-817E-4155-910A-D5B14310937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11385" xr2:uid="{DE6D664E-A605-452B-8452-197259DFBC04}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="16695" windowHeight="11385" xr2:uid="{DE6D664E-A605-452B-8452-197259DFBC04}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>Menu</t>
   </si>
@@ -130,15 +130,9 @@
     <t>Web…</t>
   </si>
   <si>
-    <t>Rólam azt kell tu…</t>
-  </si>
-  <si>
     <t>A hobbim a videóvá…</t>
   </si>
   <si>
-    <t>You need to know ab…</t>
-  </si>
-  <si>
     <t>My hobby is video ed…</t>
   </si>
   <si>
@@ -154,21 +148,6 @@
     <t>menu.hobbi</t>
   </si>
   <si>
-    <t>text.aboutme</t>
-  </si>
-  <si>
-    <t>text.java</t>
-  </si>
-  <si>
-    <t>text.web</t>
-  </si>
-  <si>
-    <t>text.c</t>
-  </si>
-  <si>
-    <t>text.hobbi</t>
-  </si>
-  <si>
     <t>Kötések</t>
   </si>
   <si>
@@ -184,18 +163,6 @@
     <t>text.key</t>
   </si>
   <si>
-    <t>&lt;h1&gt;###menu.aboutme###&lt;/h1&gt;…</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt;###menu.prog###&lt;/h1&gt;…</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt;###menu.hobbi###&lt;/h1&gt;…</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt;###menu.web###&lt;/h1&gt;…</t>
-  </si>
-  <si>
     <t>Segédlet</t>
   </si>
   <si>
@@ -211,7 +178,76 @@
     <t>Text_Key</t>
   </si>
   <si>
-    <t>menu.hobby</t>
+    <t>###menu.aboutme###</t>
+  </si>
+  <si>
+    <t>###menu.prog###</t>
+  </si>
+  <si>
+    <t>###menu.web###</t>
+  </si>
+  <si>
+    <t>###menu.hobby###</t>
+  </si>
+  <si>
+    <t>###about_me###</t>
+  </si>
+  <si>
+    <t>###programming###</t>
+  </si>
+  <si>
+    <t>###web_develop###</t>
+  </si>
+  <si>
+    <t>###hobbies###</t>
+  </si>
+  <si>
+    <t>###menu.aboutme</t>
+  </si>
+  <si>
+    <t>###menu.hobbi###</t>
+  </si>
+  <si>
+    <t>###text.aboutme###</t>
+  </si>
+  <si>
+    <t>###text.c###</t>
+  </si>
+  <si>
+    <t>###text.java###</t>
+  </si>
+  <si>
+    <t>###text.web###</t>
+  </si>
+  <si>
+    <t>###text.hobbi###</t>
+  </si>
+  <si>
+    <t>###text.aboutme_name###</t>
+  </si>
+  <si>
+    <t>I'm</t>
+  </si>
+  <si>
+    <t>Én ... Vagyok</t>
+  </si>
+  <si>
+    <t>###text.aboutme_proffesion###</t>
+  </si>
+  <si>
+    <t>Szoftverfejlesztő</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>###text.aboutme_text###</t>
+  </si>
+  <si>
+    <t>Rólam azt kell tudni….</t>
+  </si>
+  <si>
+    <t>I'm an program….</t>
   </si>
 </sst>
 </file>
@@ -483,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -543,37 +579,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -890,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FFA654-AAF1-4D6E-84E2-E0894408DC86}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J21" sqref="J21:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +947,7 @@
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
@@ -912,34 +955,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="A1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="12"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="J1" s="24" t="s">
+      <c r="H1" s="29"/>
+      <c r="J1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="N1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="25"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="N1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="13"/>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -951,16 +994,16 @@
         <v>13</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -978,7 +1021,7 @@
       </c>
       <c r="E3" s="15"/>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -987,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1015,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
@@ -1033,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>22</v>
@@ -1057,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>23</v>
@@ -1069,10 +1112,10 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="15"/>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1088,11 +1131,11 @@
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
@@ -1123,12 +1166,12 @@
         <v>16</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
@@ -1137,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1148,25 +1191,25 @@
         <v>2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="32"/>
       <c r="J12" s="2">
         <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1180,10 +1223,10 @@
         <v>4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1196,21 +1239,21 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>14</v>
@@ -1222,10 +1265,10 @@
         <v>19</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="10:13" x14ac:dyDescent="0.25">
@@ -1233,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>24</v>
@@ -1247,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>25</v>
@@ -1257,11 +1300,11 @@
       </c>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="10">
+      <c r="J19" s="8">
         <v>3</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>26</v>
@@ -1275,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>27</v>
@@ -1285,77 +1328,120 @@
       </c>
     </row>
     <row r="21" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="7">
+      <c r="J21" s="34">
         <v>5</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="K21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="11">
+        <v>6</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="34">
+        <v>7</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="11">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="34">
+        <v>9</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="11">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="34">
+        <v>11</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="11">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="7">
-        <v>6</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="7">
-        <v>7</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="7">
-        <v>8</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="7">
-        <v>9</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G7:H7"/>
@@ -1364,7 +1450,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
